--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/15/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/15/seed3/result_data_RandomForest.xlsx
@@ -494,7 +494,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.700700000000004</v>
+        <v>-7.9261</v>
       </c>
     </row>
     <row r="5">
@@ -544,7 +544,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>5.867599999999998</v>
+        <v>5.734199999999999</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -572,7 +572,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.078699999999996</v>
+        <v>5.7577</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -600,13 +600,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.2401</v>
+        <v>5.416099999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.947199999999997</v>
+        <v>-5.960199999999999</v>
       </c>
     </row>
     <row r="13">
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.354800000000001</v>
+        <v>-8.225399999999997</v>
       </c>
     </row>
     <row r="16">
@@ -676,7 +676,7 @@
         <v>-14.84</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.399899999999995</v>
+        <v>-8.377399999999996</v>
       </c>
     </row>
     <row r="18">
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.844999999999995</v>
+        <v>6.473499999999996</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.194300000000005</v>
+        <v>-7.442200000000006</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.936699999999998</v>
+        <v>-7.9574</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.056499999999998</v>
+        <v>-8.016999999999996</v>
       </c>
     </row>
     <row r="29">
@@ -950,13 +950,13 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.679100000000002</v>
+        <v>8.749600000000006</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.969800000000006</v>
+        <v>-8.009099999999997</v>
       </c>
     </row>
     <row r="38">
@@ -1096,7 +1096,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.684599999999996</v>
+        <v>-7.692999999999997</v>
       </c>
     </row>
     <row r="48">
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.237799999999996</v>
+        <v>5.879499999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1348,7 +1348,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.724499999999997</v>
+        <v>-7.857600000000003</v>
       </c>
     </row>
     <row r="66">
@@ -1384,7 +1384,7 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.890599999999996</v>
+        <v>4.894599999999996</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.856699999999992</v>
+        <v>-8.148899999999996</v>
       </c>
     </row>
     <row r="74">
@@ -1510,7 +1510,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.223599999999999</v>
+        <v>8.975900000000003</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.450299999999997</v>
+        <v>9.513300000000001</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.276100000000003</v>
+        <v>5.502200000000005</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.5295</v>
+        <v>5.717099999999999</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1614,7 +1614,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.115599999999999</v>
+        <v>-8.204699999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-8.901799999999994</v>
+        <v>-8.859199999999998</v>
       </c>
     </row>
     <row r="86">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.852599999999992</v>
+        <v>-6.911399999999993</v>
       </c>
     </row>
     <row r="94">
@@ -1768,7 +1768,7 @@
         <v>-11.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-7.506899999999997</v>
+        <v>-7.502399999999999</v>
       </c>
     </row>
     <row r="96">
@@ -1810,7 +1810,7 @@
         <v>-10.59</v>
       </c>
       <c r="D98" t="n">
-        <v>-7.116000000000002</v>
+        <v>-7.3094</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.094099999999999</v>
+        <v>-7.925800000000005</v>
       </c>
     </row>
     <row r="100">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.717899999999994</v>
+        <v>-8.119799999999994</v>
       </c>
     </row>
     <row r="102">
